--- a/2024 Formularios de Autorización de Acceso actualizacion  VPN Ricardo Esquivel Mayo 2025.xlsx
+++ b/2024 Formularios de Autorización de Acceso actualizacion  VPN Ricardo Esquivel Mayo 2025.xlsx
@@ -981,63 +981,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1045,19 +1045,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1065,7 +1065,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1077,15 +1077,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1097,35 +1097,35 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1218,9 +1218,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>11520</xdr:colOff>
+      <xdr:colOff>11160</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1240,7 +1240,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4465440" y="4952880"/>
-          <a:ext cx="2491560" cy="276120"/>
+          <a:ext cx="2491200" cy="275760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1266,9 +1266,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>41760</xdr:colOff>
+      <xdr:colOff>41400</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1288,7 +1288,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3541320" y="10477440"/>
-          <a:ext cx="2313720" cy="270000"/>
+          <a:ext cx="2313360" cy="269640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1593,7 +1593,7 @@
   <dimension ref="A2:AK138"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AZ44" activeCellId="0" sqref="AZ44"/>
+      <selection pane="topLeft" activeCell="AF4" activeCellId="0" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.2734375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1730,7 +1730,7 @@
       <c r="AD4" s="16"/>
       <c r="AE4" s="16"/>
       <c r="AF4" s="17" t="n">
-        <v>45797</v>
+        <v>45796</v>
       </c>
       <c r="AG4" s="17"/>
       <c r="AH4" s="17"/>
